--- a/xlsx/圣安东尼奥 (得克萨斯州)_intext.xlsx
+++ b/xlsx/圣安东尼奥 (得克萨斯州)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>圣安东尼奥 (得克萨斯州)</t>
   </si>
@@ -29,19 +29,19 @@
     <t>得克萨斯州</t>
   </si>
   <si>
-    <t>政策_政策_美國_圣安东尼奥 (得克萨斯州)</t>
+    <t>政策_政策_美国_圣安东尼奥 (得克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%88%BE%E7%B8%A3_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>比爾縣 (德克薩斯州)</t>
+    <t>比尔县 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%BF%AA%E7%B4%8D%E7%B8%A3_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅迪納縣 (德克薩斯州)</t>
+    <t>梅迪纳县 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%A6%AC%E7%88%BE%E7%B8%A3_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>科馬爾縣 (德克薩斯州)</t>
+    <t>科马尔县 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC%E7%9A%84%E8%81%96%E5%AE%89%E5%A4%9A%E5%B0%BC</t>
   </si>
   <si>
-    <t>里斯本的聖安多尼</t>
+    <t>里斯本的圣安多尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
   </si>
   <si>
-    <t>無黨籍</t>
+    <t>无党籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8C%BA</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%8C%BA</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E5%8D%80%E7%B7%A8%E8%99%9F</t>
   </si>
   <si>
-    <t>美國郵區編號</t>
+    <t>美国邮区编号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D%E5%8F%B7%E7%A0%81%E5%88%86%E7%B1%BB%E8%AE%A1%E5%88%92</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>州際公路</t>
+    <t>州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E%E6%AE%B5</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/181%E5%8F%B7%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%81%93</t>
@@ -179,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E6%95%A6</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>聖安東尼奧國際機場</t>
+    <t>圣安东尼奥国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -347,13 +344,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%85%A7%E6%99%82%E6%95%B8</t>
   </si>
   <si>
-    <t>日照時數</t>
+    <t>日照时数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B1%80%E6%A3%AE%E5%B8%82%E7%AB%8B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>史汀森市立機場</t>
+    <t>史汀森市立机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%E9%A9%AC%E5%88%BA</t>
@@ -365,9 +362,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%E9%8A%80%E6%98%9F</t>
   </si>
   <si>
-    <t>聖安東尼奧銀星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/AHL</t>
   </si>
   <si>
@@ -419,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E6%9C%AC%E7%B8%A3</t>
   </si>
   <si>
-    <t>熊本縣</t>
+    <t>熊本县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E6%9C%AC%E5%B8%82</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%90%8A%E6%98%82%E5%B7%9E</t>
   </si>
   <si>
-    <t>新萊昂州</t>
+    <t>新莱昂州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9B%84%E5%B8%82</t>
@@ -509,25 +503,25 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B50%E5%A4%A7%E9%83%BD%E5%B8%82</t>
   </si>
   <si>
-    <t>Template talk-美國50大都市</t>
+    <t>Template talk-美国50大都市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%BB%E8%A6%81%E9%83%BD%E5%B8%82%E4%BA%BA%E5%8F%A3%E9%A0%86%E4%BD%8D</t>
   </si>
   <si>
-    <t>美國主要都市人口順位</t>
+    <t>美国主要都市人口顺位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -539,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖安東尼奧 (德克薩斯州)</t>
+    <t>圣安东尼奥 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%BF%AD%E6%88%88_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -581,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%96%AF%E5%A0%A1</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅萊那州)</t>
+    <t>夏洛特 (北卡罗莱那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
@@ -623,31 +617,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E5%B8%95%E7%B4%A2_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>艾爾帕索 (德克薩斯州)</t>
+    <t>艾尔帕索 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>路易斯維爾</t>
+    <t>路易斯维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%B0%94%E6%B2%83%E5%9F%BA</t>
@@ -683,19 +677,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波特蘭 (奧勒岡州)</t>
+    <t>波特兰 (奥勒冈州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B8%82</t>
   </si>
   <si>
-    <t>奧克拉荷馬市</t>
+    <t>奥克拉荷马市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B8%83%E5%A5%8E%E5%9F%BA_(%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E)</t>
@@ -707,55 +701,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%A3%AE_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>圖森 (亞利桑那州)</t>
+    <t>图森 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E9%9B%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>佛雷斯諾</t>
+    <t>佛雷斯诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (密蘇里州)</t>
+    <t>堪萨斯城 (密苏里州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E6%B5%B7%E7%81%98</t>
   </si>
   <si>
-    <t>維吉尼亞海灘</t>
+    <t>维吉尼亚海滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E6%B3%89</t>
   </si>
   <si>
-    <t>科羅拉多泉</t>
+    <t>科罗拉多泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%93%88_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -773,19 +767,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%88%BE%E8%96%A9</t>
   </si>
   <si>
-    <t>圖爾薩</t>
+    <t>图尔萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1964,7 +1958,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
         <v>11</v>
@@ -1990,10 +1984,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2019,10 +2013,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2048,10 +2042,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2077,10 +2071,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -2106,10 +2100,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2135,10 +2129,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2164,10 +2158,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2193,10 +2187,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2222,10 +2216,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2251,10 +2245,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -2280,10 +2274,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2309,10 +2303,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2338,10 +2332,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2367,10 +2361,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2396,10 +2390,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2425,10 +2419,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2454,10 +2448,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2483,10 +2477,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2512,10 +2506,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>5</v>
@@ -2541,10 +2535,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2570,10 +2564,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2599,10 +2593,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2628,10 +2622,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2657,10 +2651,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2686,10 +2680,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2715,10 +2709,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>5</v>
@@ -2744,10 +2738,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2773,10 +2767,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2802,10 +2796,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2831,10 +2825,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2860,10 +2854,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2889,10 +2883,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2918,10 +2912,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2947,10 +2941,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" t="s">
         <v>103</v>
-      </c>
-      <c r="F61" t="s">
-        <v>104</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2976,10 +2970,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -3005,10 +2999,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
         <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>112</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3034,10 +3028,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3063,10 +3057,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3092,10 +3086,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3121,10 +3115,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3150,10 +3144,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3179,10 +3173,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3208,10 +3202,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3237,10 +3231,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3266,10 +3260,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3295,10 +3289,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3324,10 +3318,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3353,10 +3347,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3382,10 +3376,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3411,10 +3405,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3440,10 +3434,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3469,10 +3463,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3498,10 +3492,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3527,10 +3521,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3556,10 +3550,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3585,10 +3579,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3614,10 +3608,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3643,10 +3637,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3672,10 +3666,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3701,10 +3695,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3730,10 +3724,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3759,10 +3753,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3788,10 +3782,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3817,10 +3811,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3846,10 +3840,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3875,10 +3869,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -3904,10 +3898,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3933,10 +3927,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3962,10 +3956,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3991,10 +3985,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4020,10 +4014,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4049,10 +4043,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4078,10 +4072,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4107,10 +4101,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4136,10 +4130,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4165,10 +4159,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4194,10 +4188,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4223,10 +4217,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4252,10 +4246,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4281,10 +4275,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4310,10 +4304,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4339,10 +4333,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4368,10 +4362,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4397,10 +4391,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4426,10 +4420,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4455,10 +4449,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4484,10 +4478,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4513,10 +4507,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4542,10 +4536,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4571,10 +4565,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4600,10 +4594,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4629,10 +4623,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4658,10 +4652,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4687,10 +4681,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4716,10 +4710,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4745,10 +4739,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4774,10 +4768,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4803,10 +4797,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4832,10 +4826,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4861,10 +4855,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4890,10 +4884,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4919,10 +4913,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4948,10 +4942,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4977,10 +4971,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5006,10 +5000,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5035,10 +5029,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5064,10 +5058,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5093,10 +5087,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5122,10 +5116,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5151,10 +5145,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5180,10 +5174,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5209,10 +5203,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5238,10 +5232,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
